--- a/inventory/Pasta 1.xlsx
+++ b/inventory/Pasta 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{52221DBD-05F3-4849-9E73-7C913DF1D8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{057DA291-140F-442A-9551-265F522D169F}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{52221DBD-05F3-4849-9E73-7C913DF1D8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A42339C-FA5B-453D-8BB1-5B486F462895}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,15 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
-  <si>
-    <t>Produto</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="44">
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Categoria</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Marca</t>
   </si>
   <si>
     <t>Validade</t>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Alimentos</t>
-  </si>
-  <si>
-    <t>active</t>
   </si>
   <si>
     <t>null</t>
@@ -573,15 +570,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
@@ -614,14 +611,14 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>46080</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="5">
         <v>38.5</v>
@@ -629,19 +626,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>45779</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="5">
         <v>9.99</v>
@@ -649,19 +646,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>46002</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="5">
         <v>5.5</v>
@@ -669,19 +666,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2">
         <v>46194</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="5">
         <v>35.99</v>
@@ -689,19 +686,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2">
         <v>46500</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="5">
         <v>6.5</v>
@@ -709,19 +706,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2">
         <v>46265</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="5">
         <v>3.88</v>
@@ -729,19 +726,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2">
         <v>46418</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="5">
         <v>4.99</v>
@@ -749,19 +746,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2">
         <v>46083</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="5">
         <v>12.5</v>
@@ -769,19 +766,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2">
         <v>46397</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="5">
         <v>5.99</v>
@@ -789,19 +786,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2">
         <v>45784</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="5">
         <v>7.5</v>
@@ -809,19 +806,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2">
         <v>45847</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="5">
         <v>9.99</v>
@@ -829,19 +826,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2">
         <v>45991</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="5">
         <v>2.5</v>
@@ -849,19 +846,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2">
         <v>47118</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="5">
         <v>7.99</v>
@@ -869,19 +866,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="2">
         <v>45961</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="5">
         <v>8.99</v>
@@ -889,19 +886,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2">
         <v>46220</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="5">
         <v>8.5</v>
@@ -909,19 +906,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2">
         <v>46203</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="5">
         <v>4.5</v>
@@ -929,19 +926,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2">
         <v>46387</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="5">
         <v>4.5</v>
@@ -949,19 +946,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="2">
         <v>45984</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="5">
         <v>4.5</v>
@@ -969,19 +966,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2">
         <v>46030</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="5">
         <v>7.99</v>
@@ -989,19 +986,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2">
         <v>45777</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" s="5">
         <v>4.5</v>
@@ -1009,19 +1006,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2">
         <v>45961</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" s="5">
         <v>4.99</v>
@@ -1029,19 +1026,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2">
         <v>46234</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" s="5">
         <v>22.99</v>
@@ -1049,19 +1046,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="2">
         <v>46022</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="5">
         <v>3.5</v>
@@ -1069,19 +1066,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" s="5">
         <v>3.5</v>
@@ -1089,19 +1086,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="5">
         <v>3</v>
@@ -1109,19 +1106,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="2">
         <v>46721</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="5">
         <v>6.99</v>
@@ -1129,19 +1126,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2">
         <v>46265</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="5">
         <v>5.5</v>
@@ -1149,19 +1146,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2">
         <v>46347</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" s="5">
         <v>10</v>
@@ -1169,19 +1166,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2">
         <v>46063</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" s="5">
         <v>10</v>
@@ -1189,19 +1186,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2">
         <v>46063</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" s="5">
         <v>7</v>
@@ -1209,19 +1206,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="2">
         <v>46240</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" s="5">
         <v>11</v>
@@ -1229,19 +1226,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="2">
         <v>45743</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" s="5">
         <v>5</v>
@@ -1249,19 +1246,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="2">
         <v>45775</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" s="5">
         <v>3</v>
@@ -1269,19 +1266,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2">
         <v>45848</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" s="5">
         <v>3</v>
